--- a/src/test/resources/xlsx/2차전형점수.xlsx
+++ b/src/test/resources/xlsx/2차전형점수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimhanul/maru/src/test/resources/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeon-yujin/Documents/workspace/backend/springboot/maru/src/test/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF5010-9BBF-974A-A7C6-3C5FFE2E8227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C7038-6DC3-FA43-9B8C-597DC578CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,13 +474,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -559,7 +559,7 @@
         <v>11.11</v>
       </c>
       <c r="F4">
-        <v>133.19999999999999</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="b" cm="1">
         <f t="array" ref="G4">IF(C4="마이스터인재전형", IF(AND(ISBLANK(D4:F4)), FALSE, TRUE), IF(AND(ISBLANK(D4:E4)), FALSE, TRUE))</f>
@@ -580,7 +580,7 @@
         <v>111.11</v>
       </c>
       <c r="E5">
-        <v>111.11</v>
+        <v>22.11</v>
       </c>
       <c r="G5" s="1" t="b" cm="1">
         <f t="array" ref="G5">IF(C5="마이스터인재전형", IF(AND(ISBLANK(D5:F5)), FALSE, TRUE), IF(AND(ISBLANK(D5:E5)), FALSE, TRUE))</f>

--- a/src/test/resources/xlsx/2차전형점수.xlsx
+++ b/src/test/resources/xlsx/2차전형점수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeon-yujin/Documents/workspace/backend/springboot/maru/src/test/resources/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cabbage16\workspace\IdeaProjects\Bamdoliro\marubase\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C7038-6DC3-FA43-9B8C-597DC578CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A06F8-7E1E-4F26-B4D9-B4AF48F43C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
+    <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11100" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,16 +474,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,9 +506,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -527,9 +527,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2002</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -542,9 +542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -566,9 +566,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
